--- a/Code/Results/Cases/Case_0_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.549915857406393</v>
+        <v>5.432019178035748</v>
       </c>
       <c r="D2">
-        <v>18.32581902858678</v>
+        <v>14.37994989851497</v>
       </c>
       <c r="E2">
-        <v>6.873441497283141</v>
+        <v>10.96708249694544</v>
       </c>
       <c r="F2">
-        <v>105.5969706034127</v>
+        <v>70.8277802207096</v>
       </c>
       <c r="G2">
-        <v>1.749721608179796</v>
+        <v>3.77315679165562</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>80.89792039803223</v>
+        <v>57.37688974334848</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.288266240448796</v>
+        <v>10.30711645587346</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682373</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.967842323767378</v>
+        <v>5.33238946464488</v>
       </c>
       <c r="D3">
-        <v>16.27123621604037</v>
+        <v>14.20838952785987</v>
       </c>
       <c r="E3">
-        <v>6.617242329710549</v>
+        <v>11.00335940245331</v>
       </c>
       <c r="F3">
-        <v>94.15650677140135</v>
+        <v>69.33793411521458</v>
       </c>
       <c r="G3">
-        <v>1.831188240044963</v>
+        <v>3.78628358837993</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>72.10118478361132</v>
+        <v>56.39056763191363</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.878092754316293</v>
+        <v>10.32880045711248</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.2256181799734</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.65028181022652</v>
+        <v>5.269859457617176</v>
       </c>
       <c r="D4">
-        <v>15.25032627260492</v>
+        <v>14.10867205384778</v>
       </c>
       <c r="E4">
-        <v>6.500011056562473</v>
+        <v>11.02831929866602</v>
       </c>
       <c r="F4">
-        <v>87.84961407060685</v>
+        <v>68.44323962109851</v>
       </c>
       <c r="G4">
-        <v>1.873931637839905</v>
+        <v>3.794683062915857</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>67.25153052269395</v>
+        <v>55.80438599385968</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.676608179870115</v>
+        <v>10.34498935555675</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.526169051495056</v>
+        <v>5.244044124759378</v>
       </c>
       <c r="D5">
-        <v>14.85810189642913</v>
+        <v>14.06946847375139</v>
       </c>
       <c r="E5">
-        <v>6.458911449701257</v>
+        <v>11.03916136935733</v>
       </c>
       <c r="F5">
-        <v>85.37318066894751</v>
+        <v>68.08410711132531</v>
       </c>
       <c r="G5">
-        <v>1.890323774606722</v>
+        <v>3.798192345767762</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>65.34707554584031</v>
+        <v>55.57061343284588</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.602713629468955</v>
+        <v>10.35230219779425</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.505797020227544</v>
+        <v>5.239737570217142</v>
       </c>
       <c r="D6">
-        <v>14.79389912265897</v>
+        <v>14.06304571961459</v>
       </c>
       <c r="E6">
-        <v>6.452428229768832</v>
+        <v>11.04100206297787</v>
       </c>
       <c r="F6">
-        <v>84.96609925843453</v>
+        <v>68.02481530256783</v>
       </c>
       <c r="G6">
-        <v>1.892998017787519</v>
+        <v>3.798780309588909</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>65.03400082879644</v>
+        <v>55.53210987006684</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.590859764303326</v>
+        <v>10.35355950979229</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962175</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.648590537819179</v>
+        <v>5.269512644643617</v>
       </c>
       <c r="D7">
-        <v>15.24496946415923</v>
+        <v>14.10813752009782</v>
       </c>
       <c r="E7">
-        <v>6.499432711225437</v>
+        <v>11.0284628089587</v>
       </c>
       <c r="F7">
-        <v>87.81591035134021</v>
+        <v>68.43837357469987</v>
       </c>
       <c r="G7">
-        <v>1.874156174803164</v>
+        <v>3.794730039022434</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>67.22561234208101</v>
+        <v>55.8012123231704</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.6755821891541</v>
+        <v>10.34508509053109</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062623</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.336678942978834</v>
+        <v>5.397952731411674</v>
       </c>
       <c r="D8">
-        <v>17.57524878500539</v>
+        <v>14.31964132930881</v>
       </c>
       <c r="E8">
-        <v>6.77375822213734</v>
+        <v>10.97903052001517</v>
       </c>
       <c r="F8">
-        <v>101.4250428043449</v>
+        <v>70.31016472982139</v>
       </c>
       <c r="G8">
-        <v>1.780043940465656</v>
+        <v>3.777613069900291</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>77.68996404498067</v>
+        <v>57.03290791136932</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.132396942341197</v>
+        <v>10.31399209573145</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.336678942978834</v>
+        <v>5.63876833109755</v>
       </c>
       <c r="D9">
-        <v>17.57524878500539</v>
+        <v>14.77804291066461</v>
       </c>
       <c r="E9">
-        <v>6.77375822213734</v>
+        <v>10.90361980359458</v>
       </c>
       <c r="F9">
-        <v>101.4250428043449</v>
+        <v>74.12171597412453</v>
       </c>
       <c r="G9">
-        <v>1.780043940465656</v>
+        <v>3.746692455716552</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>77.68996404498067</v>
+        <v>59.59241257954898</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.132396942341197</v>
+        <v>10.27615572341387</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.1395913014106</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.336678942978834</v>
+        <v>5.808627047943533</v>
       </c>
       <c r="D10">
-        <v>17.57524878500539</v>
+        <v>15.13999543410459</v>
       </c>
       <c r="E10">
-        <v>6.77375822213734</v>
+        <v>10.86164768903911</v>
       </c>
       <c r="F10">
-        <v>101.4250428043449</v>
+        <v>76.98386661283966</v>
       </c>
       <c r="G10">
-        <v>1.780043940465656</v>
+        <v>3.725518037624417</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>77.68996404498067</v>
+        <v>61.54714058716828</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.132396942341197</v>
+        <v>10.26291940535079</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.1395913014106</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.336678942978834</v>
+        <v>5.88431100790652</v>
       </c>
       <c r="D11">
-        <v>17.57524878500539</v>
+        <v>15.30977916409777</v>
       </c>
       <c r="E11">
-        <v>6.77375822213734</v>
+        <v>10.84554068159729</v>
       </c>
       <c r="F11">
-        <v>101.4250428043449</v>
+        <v>78.29449542027703</v>
       </c>
       <c r="G11">
-        <v>1.780043940465656</v>
+        <v>3.716204406039463</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>77.68996404498067</v>
+        <v>62.44964211473809</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.132396942341197</v>
+        <v>10.26016049763678</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.1395913014106</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.336678942978834</v>
+        <v>5.91273882299694</v>
       </c>
       <c r="D12">
-        <v>17.57524878500539</v>
+        <v>15.37477905394122</v>
       </c>
       <c r="E12">
-        <v>6.77375822213734</v>
+        <v>10.83987690490871</v>
       </c>
       <c r="F12">
-        <v>101.4250428043449</v>
+        <v>78.79165728588413</v>
       </c>
       <c r="G12">
-        <v>1.780043940465656</v>
+        <v>3.712722064660348</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>77.68996404498067</v>
+        <v>62.79307245729171</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.132396942341197</v>
+        <v>10.25959328643976</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.1395913014106</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.336678942978834</v>
+        <v>5.906626760583528</v>
       </c>
       <c r="D13">
-        <v>17.57524878500539</v>
+        <v>15.36074924082907</v>
       </c>
       <c r="E13">
-        <v>6.77375822213734</v>
+        <v>10.84107722637058</v>
       </c>
       <c r="F13">
-        <v>101.4250428043449</v>
+        <v>78.68455239002708</v>
       </c>
       <c r="G13">
-        <v>1.780043940465656</v>
+        <v>3.713470090079163</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>77.68996404498067</v>
+        <v>62.71903787351015</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.132396942341197</v>
+        <v>10.2596940717787</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.1395913014106</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.336678942978834</v>
+        <v>5.886654452309262</v>
       </c>
       <c r="D14">
-        <v>17.57524878500539</v>
+        <v>15.31511276413469</v>
       </c>
       <c r="E14">
-        <v>6.77375822213734</v>
+        <v>10.84506595304095</v>
       </c>
       <c r="F14">
-        <v>101.4250428043449</v>
+        <v>78.33538219626183</v>
       </c>
       <c r="G14">
-        <v>1.780043940465656</v>
+        <v>3.715917026950037</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>77.68996404498067</v>
+        <v>62.47786413950131</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.132396942341197</v>
+        <v>10.2601042137446</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.1395913014106</v>
+        <v>21.67368539489599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.336678942978834</v>
+        <v>5.874390510357419</v>
       </c>
       <c r="D15">
-        <v>17.57524878500539</v>
+        <v>15.28725018157197</v>
       </c>
       <c r="E15">
-        <v>6.77375822213734</v>
+        <v>10.8475660782476</v>
       </c>
       <c r="F15">
-        <v>101.4250428043449</v>
+        <v>78.12160577313388</v>
       </c>
       <c r="G15">
-        <v>1.780043940465656</v>
+        <v>3.717421605816716</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>77.68996404498067</v>
+        <v>62.33034920267111</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.132396942341197</v>
+        <v>10.26041787791934</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.1395913014106</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.336678942978834</v>
+        <v>5.803648651160008</v>
       </c>
       <c r="D16">
-        <v>17.57524878500539</v>
+        <v>15.12900023081763</v>
       </c>
       <c r="E16">
-        <v>6.77375822213734</v>
+        <v>10.86276093394254</v>
       </c>
       <c r="F16">
-        <v>101.4250428043449</v>
+        <v>76.89835396568864</v>
       </c>
       <c r="G16">
-        <v>1.780043940465656</v>
+        <v>3.726133008653255</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>77.68996404498067</v>
+        <v>61.488406773121</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.132396942341197</v>
+        <v>10.26316606818449</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.1395913014106</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.336678942978834</v>
+        <v>5.759841550375415</v>
       </c>
       <c r="D17">
-        <v>17.57524878500539</v>
+        <v>15.03321076014114</v>
       </c>
       <c r="E17">
-        <v>6.77375822213734</v>
+        <v>10.87285166578735</v>
       </c>
       <c r="F17">
-        <v>101.4250428043449</v>
+        <v>76.14985520502327</v>
       </c>
       <c r="G17">
-        <v>1.780043940465656</v>
+        <v>3.731557893446692</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.68996404498067</v>
+        <v>60.97513290380904</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.132396942341197</v>
+        <v>10.26569349160005</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.1395913014106</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.336678942978834</v>
+        <v>5.734495808646508</v>
       </c>
       <c r="D18">
-        <v>17.57524878500539</v>
+        <v>14.97859992446942</v>
       </c>
       <c r="E18">
-        <v>6.77375822213734</v>
+        <v>10.87893629091508</v>
       </c>
       <c r="F18">
-        <v>101.4250428043449</v>
+        <v>75.72017159862972</v>
       </c>
       <c r="G18">
-        <v>1.780043940465656</v>
+        <v>3.734708223949952</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.68996404498067</v>
+        <v>60.68117561248639</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.132396942341197</v>
+        <v>10.26745375574026</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.1395913014106</v>
+        <v>20.79000725568141</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.336678942978834</v>
+        <v>5.725888712569485</v>
       </c>
       <c r="D19">
-        <v>17.57524878500539</v>
+        <v>14.96019383336798</v>
       </c>
       <c r="E19">
-        <v>6.77375822213734</v>
+        <v>10.88104446745451</v>
       </c>
       <c r="F19">
-        <v>101.4250428043449</v>
+        <v>75.57484333479348</v>
       </c>
       <c r="G19">
-        <v>1.780043940465656</v>
+        <v>3.73578007685061</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.68996404498067</v>
+        <v>60.58187127160402</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.132396942341197</v>
+        <v>10.26810214893005</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.1395913014106</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.336678942978834</v>
+        <v>5.764520349768115</v>
       </c>
       <c r="D20">
-        <v>17.57524878500539</v>
+        <v>15.04335776994106</v>
       </c>
       <c r="E20">
-        <v>6.77375822213734</v>
+        <v>10.87174839455799</v>
       </c>
       <c r="F20">
-        <v>101.4250428043449</v>
+        <v>76.22945082397973</v>
       </c>
       <c r="G20">
-        <v>1.780043940465656</v>
+        <v>3.730977301272129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.68996404498067</v>
+        <v>61.02964269254235</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.132396942341197</v>
+        <v>10.26539265522109</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.1395913014106</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.336678942978834</v>
+        <v>5.892527129407968</v>
       </c>
       <c r="D21">
-        <v>17.57524878500539</v>
+        <v>15.32849837882466</v>
       </c>
       <c r="E21">
-        <v>6.77375822213734</v>
+        <v>10.8438824949486</v>
       </c>
       <c r="F21">
-        <v>101.4250428043449</v>
+        <v>78.43792167114036</v>
       </c>
       <c r="G21">
-        <v>1.780043940465656</v>
+        <v>3.715197104429218</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>77.68996404498067</v>
+        <v>62.5486591611259</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.132396942341197</v>
+        <v>10.25997071735805</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.1395913014106</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.336678942978834</v>
+        <v>5.974833081525459</v>
       </c>
       <c r="D22">
-        <v>17.57524878500539</v>
+        <v>15.51895775614673</v>
       </c>
       <c r="E22">
-        <v>6.77375822213734</v>
+        <v>10.82821255722245</v>
       </c>
       <c r="F22">
-        <v>101.4250428043449</v>
+        <v>79.88611074695183</v>
       </c>
       <c r="G22">
-        <v>1.780043940465656</v>
+        <v>3.705142737028785</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>77.68996404498067</v>
+        <v>63.55107119365304</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.132396942341197</v>
+        <v>10.25921458415219</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.1395913014106</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.336678942978834</v>
+        <v>5.931029840813487</v>
       </c>
       <c r="D23">
-        <v>17.57524878500539</v>
+        <v>15.41694081853078</v>
       </c>
       <c r="E23">
-        <v>6.77375822213734</v>
+        <v>10.83634119766232</v>
       </c>
       <c r="F23">
-        <v>101.4250428043449</v>
+        <v>79.1128634935535</v>
       </c>
       <c r="G23">
-        <v>1.780043940465656</v>
+        <v>3.710485697192249</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>77.68996404498067</v>
+        <v>63.01525805303074</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.132396942341197</v>
+        <v>10.25936027710262</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.1395913014106</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.336678942978834</v>
+        <v>5.762405564029657</v>
       </c>
       <c r="D24">
-        <v>17.57524878500539</v>
+        <v>15.03876887224643</v>
       </c>
       <c r="E24">
-        <v>6.77375822213734</v>
+        <v>10.87224630143798</v>
       </c>
       <c r="F24">
-        <v>101.4250428043449</v>
+        <v>76.19346362697257</v>
       </c>
       <c r="G24">
-        <v>1.780043940465656</v>
+        <v>3.731239688806049</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.68996404498067</v>
+        <v>61.00499527701161</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.132396942341197</v>
+        <v>10.26552770707653</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.1395913014106</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.336678942978834</v>
+        <v>5.574841451092836</v>
       </c>
       <c r="D25">
-        <v>17.57524878500539</v>
+        <v>14.64950132746626</v>
       </c>
       <c r="E25">
-        <v>6.77375822213734</v>
+        <v>10.92168464148548</v>
       </c>
       <c r="F25">
-        <v>101.4250428043449</v>
+        <v>73.07802671780179</v>
       </c>
       <c r="G25">
-        <v>1.780043940465656</v>
+        <v>3.754781139305293</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>77.68996404498067</v>
+        <v>58.88596542044987</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.132396942341197</v>
+        <v>10.28386766157655</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.1395913014106</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.432019178035748</v>
+        <v>6.549915857406282</v>
       </c>
       <c r="D2">
-        <v>14.37994989851497</v>
+        <v>18.32581902858681</v>
       </c>
       <c r="E2">
-        <v>10.96708249694544</v>
+        <v>6.87344149728313</v>
       </c>
       <c r="F2">
-        <v>70.8277802207096</v>
+        <v>105.5969706034127</v>
       </c>
       <c r="G2">
-        <v>3.77315679165562</v>
+        <v>1.749721608179641</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>57.37688974334848</v>
+        <v>80.89792039803227</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.30711645587346</v>
+        <v>7.288266240448796</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.33238946464488</v>
+        <v>5.96784232376721</v>
       </c>
       <c r="D3">
-        <v>14.20838952785987</v>
+        <v>16.27123621604018</v>
       </c>
       <c r="E3">
-        <v>11.00335940245331</v>
+        <v>6.617242329710465</v>
       </c>
       <c r="F3">
-        <v>69.33793411521458</v>
+        <v>94.1565067714012</v>
       </c>
       <c r="G3">
-        <v>3.78628358837993</v>
+        <v>1.831188240044835</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>56.39056763191363</v>
+        <v>72.10118478361119</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.32880045711248</v>
+        <v>6.878092754316306</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.269859457617176</v>
+        <v>5.650281810226427</v>
       </c>
       <c r="D4">
-        <v>14.10867205384778</v>
+        <v>15.25032627260497</v>
       </c>
       <c r="E4">
-        <v>11.02831929866602</v>
+        <v>6.500011056562514</v>
       </c>
       <c r="F4">
-        <v>68.44323962109851</v>
+        <v>87.8496140706073</v>
       </c>
       <c r="G4">
-        <v>3.794683062915857</v>
+        <v>1.873931637840043</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>55.80438599385968</v>
+        <v>67.25153052269434</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.34498935555675</v>
+        <v>6.676608179870174</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.244044124759378</v>
+        <v>5.526169051494812</v>
       </c>
       <c r="D5">
-        <v>14.06946847375139</v>
+        <v>14.85810189642898</v>
       </c>
       <c r="E5">
-        <v>11.03916136935733</v>
+        <v>6.458911449701242</v>
       </c>
       <c r="F5">
-        <v>68.08410711132531</v>
+        <v>85.37318066894673</v>
       </c>
       <c r="G5">
-        <v>3.798192345767762</v>
+        <v>1.890323774606707</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>55.57061343284588</v>
+        <v>65.34707554583964</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.35230219779425</v>
+        <v>6.602713629468994</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.239737570217142</v>
+        <v>5.505797020227368</v>
       </c>
       <c r="D6">
-        <v>14.06304571961459</v>
+        <v>14.79389912265895</v>
       </c>
       <c r="E6">
-        <v>11.04100206297787</v>
+        <v>6.452428229768786</v>
       </c>
       <c r="F6">
-        <v>68.02481530256783</v>
+        <v>84.9660992584343</v>
       </c>
       <c r="G6">
-        <v>3.798780309588909</v>
+        <v>1.892998017787889</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>55.53210987006684</v>
+        <v>65.03400082879631</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.35355950979229</v>
+        <v>6.590859764303296</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962177</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.269512644643617</v>
+        <v>5.648590537819198</v>
       </c>
       <c r="D7">
-        <v>14.10813752009782</v>
+        <v>15.24496946415939</v>
       </c>
       <c r="E7">
-        <v>11.0284628089587</v>
+        <v>6.499432711225508</v>
       </c>
       <c r="F7">
-        <v>68.43837357469987</v>
+        <v>87.81591035134142</v>
       </c>
       <c r="G7">
-        <v>3.794730039022434</v>
+        <v>1.874156174803287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>55.8012123231704</v>
+        <v>67.22561234208196</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.34508509053109</v>
+        <v>6.675582189154129</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.397952731411674</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D8">
-        <v>14.31964132930881</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E8">
-        <v>10.97903052001517</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F8">
-        <v>70.31016472982139</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G8">
-        <v>3.777613069900291</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>57.03290791136932</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.31399209573145</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.63876833109755</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D9">
-        <v>14.77804291066461</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E9">
-        <v>10.90361980359458</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F9">
-        <v>74.12171597412453</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G9">
-        <v>3.746692455716552</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>59.59241257954898</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.27615572341387</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.808627047943533</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D10">
-        <v>15.13999543410459</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E10">
-        <v>10.86164768903911</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F10">
-        <v>76.98386661283966</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G10">
-        <v>3.725518037624417</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>61.54714058716828</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.26291940535079</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.88431100790652</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D11">
-        <v>15.30977916409777</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E11">
-        <v>10.84554068159729</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F11">
-        <v>78.29449542027703</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G11">
-        <v>3.716204406039463</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>62.44964211473809</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.26016049763678</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.91273882299694</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D12">
-        <v>15.37477905394122</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E12">
-        <v>10.83987690490871</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F12">
-        <v>78.79165728588413</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G12">
-        <v>3.712722064660348</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>62.79307245729171</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.25959328643976</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.906626760583528</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D13">
-        <v>15.36074924082907</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E13">
-        <v>10.84107722637058</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F13">
-        <v>78.68455239002708</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G13">
-        <v>3.713470090079163</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>62.71903787351015</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.2596940717787</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.886654452309262</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D14">
-        <v>15.31511276413469</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E14">
-        <v>10.84506595304095</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F14">
-        <v>78.33538219626183</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G14">
-        <v>3.715917026950037</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>62.47786413950131</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.2601042137446</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489599</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.874390510357419</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D15">
-        <v>15.28725018157197</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E15">
-        <v>10.8475660782476</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F15">
-        <v>78.12160577313388</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G15">
-        <v>3.717421605816716</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>62.33034920267111</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.26041787791934</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.803648651160008</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D16">
-        <v>15.12900023081763</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E16">
-        <v>10.86276093394254</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F16">
-        <v>76.89835396568864</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G16">
-        <v>3.726133008653255</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>61.488406773121</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.26316606818449</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.759841550375415</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D17">
-        <v>15.03321076014114</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E17">
-        <v>10.87285166578735</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F17">
-        <v>76.14985520502327</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G17">
-        <v>3.731557893446692</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>60.97513290380904</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.26569349160005</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.734495808646508</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D18">
-        <v>14.97859992446942</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E18">
-        <v>10.87893629091508</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F18">
-        <v>75.72017159862972</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G18">
-        <v>3.734708223949952</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>60.68117561248639</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.26745375574026</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568141</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.725888712569485</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D19">
-        <v>14.96019383336798</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E19">
-        <v>10.88104446745451</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F19">
-        <v>75.57484333479348</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G19">
-        <v>3.73578007685061</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>60.58187127160402</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.26810214893005</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.764520349768115</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D20">
-        <v>15.04335776994106</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E20">
-        <v>10.87174839455799</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F20">
-        <v>76.22945082397973</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G20">
-        <v>3.730977301272129</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>61.02964269254235</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.26539265522109</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.892527129407968</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D21">
-        <v>15.32849837882466</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E21">
-        <v>10.8438824949486</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F21">
-        <v>78.43792167114036</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G21">
-        <v>3.715197104429218</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>62.5486591611259</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.25997071735805</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.974833081525459</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D22">
-        <v>15.51895775614673</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E22">
-        <v>10.82821255722245</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F22">
-        <v>79.88611074695183</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G22">
-        <v>3.705142737028785</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>63.55107119365304</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.25921458415219</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.931029840813487</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D23">
-        <v>15.41694081853078</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E23">
-        <v>10.83634119766232</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F23">
-        <v>79.1128634935535</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G23">
-        <v>3.710485697192249</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>63.01525805303074</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.25936027710262</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.762405564029657</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D24">
-        <v>15.03876887224643</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E24">
-        <v>10.87224630143798</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F24">
-        <v>76.19346362697257</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G24">
-        <v>3.731239688806049</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>61.00499527701161</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.26552770707653</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.574841451092836</v>
+        <v>6.336678942978581</v>
       </c>
       <c r="D25">
-        <v>14.64950132746626</v>
+        <v>17.57524878500551</v>
       </c>
       <c r="E25">
-        <v>10.92168464148548</v>
+        <v>6.773758222137352</v>
       </c>
       <c r="F25">
-        <v>73.07802671780179</v>
+        <v>101.4250428043452</v>
       </c>
       <c r="G25">
-        <v>3.754781139305293</v>
+        <v>1.780043940465421</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>58.88596542044987</v>
+        <v>77.68996404498093</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.28386766157655</v>
+        <v>7.132396942341193</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O25">
         <v>0</v>
